--- a/data/Steuern_Klassen_Wohnviertel.xlsx
+++ b/data/Steuern_Klassen_Wohnviertel.xlsx
@@ -139,9 +139,6 @@
     <t>4_300 000-599 999</t>
   </si>
   <si>
-    <t>5_ab 700 000</t>
-  </si>
-  <si>
     <t>Quelle</t>
   </si>
   <si>
@@ -164,6 +161,9 @@
   </si>
   <si>
     <t>Daten aus der Ordentlichen Veranlagung der natürlichen Personen in Basel-Stadt, Steuerjahr 2015; ohne Wochenaufenthalter, Unterjährige und Auswärtige. Eine Veranlagung kann zwei Personen umfassen.</t>
+  </si>
+  <si>
+    <t>5_ab 600 000</t>
   </si>
 </sst>
 </file>
@@ -518,17 +518,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G240"/>
+  <dimension ref="B3:Q240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="29.28515625" customWidth="1"/>
   </cols>
@@ -2128,7 +2128,7 @@
         <v>1085616</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D113" t="s">
         <v>4</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>862679</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D114" t="s">
         <v>5</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>9814538</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D116" t="s">
         <v>32</v>
       </c>
@@ -2173,27 +2173,27 @@
         <v>1115105002</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
         <v>34</v>
       </c>
       <c r="E121" s="1"/>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D123" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E123" t="s">
         <v>28</v>
       </c>
       <c r="F123" t="s">
+        <v>41</v>
+      </c>
+      <c r="G123" t="s">
         <v>42</v>
       </c>
-      <c r="G123" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B124" s="1">
         <v>1</v>
       </c>
@@ -2212,8 +2212,11 @@
       <c r="G124" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O124" s="2"/>
+      <c r="P124" s="2"/>
+      <c r="Q124" s="2"/>
+    </row>
+    <row r="125" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D125" t="s">
         <v>36</v>
       </c>
@@ -2226,8 +2229,11 @@
       <c r="G125" s="2">
         <v>1148</v>
       </c>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O125" s="2"/>
+      <c r="P125" s="2"/>
+      <c r="Q125" s="2"/>
+    </row>
+    <row r="126" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D126" t="s">
         <v>37</v>
       </c>
@@ -2240,8 +2246,11 @@
       <c r="G126" s="2">
         <v>59634</v>
       </c>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O126" s="2"/>
+      <c r="P126" s="2"/>
+      <c r="Q126" s="2"/>
+    </row>
+    <row r="127" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D127" t="s">
         <v>38</v>
       </c>
@@ -2254,10 +2263,13 @@
       <c r="G127" s="2">
         <v>182471</v>
       </c>
-    </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O127" s="2"/>
+      <c r="P127" s="2"/>
+      <c r="Q127" s="2"/>
+    </row>
+    <row r="128" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D128" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E128" s="2">
         <v>248</v>
@@ -2268,8 +2280,11 @@
       <c r="G128" s="2">
         <v>8993661</v>
       </c>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O128" s="2"/>
+      <c r="P128" s="2"/>
+      <c r="Q128" s="2"/>
+    </row>
+    <row r="129" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B129" s="1">
         <v>2</v>
       </c>
@@ -2288,8 +2303,11 @@
       <c r="G129" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O129" s="2"/>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
+    </row>
+    <row r="130" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D130" t="s">
         <v>36</v>
       </c>
@@ -2302,8 +2320,11 @@
       <c r="G130" s="2">
         <v>3998</v>
       </c>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O130" s="2"/>
+      <c r="P130" s="2"/>
+      <c r="Q130" s="2"/>
+    </row>
+    <row r="131" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D131" t="s">
         <v>37</v>
       </c>
@@ -2316,8 +2337,11 @@
       <c r="G131" s="2">
         <v>136336</v>
       </c>
-    </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O131" s="2"/>
+      <c r="P131" s="2"/>
+      <c r="Q131" s="2"/>
+    </row>
+    <row r="132" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D132" t="s">
         <v>38</v>
       </c>
@@ -2330,10 +2354,13 @@
       <c r="G132" s="2">
         <v>349834</v>
       </c>
-    </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O132" s="2"/>
+      <c r="P132" s="2"/>
+      <c r="Q132" s="2"/>
+    </row>
+    <row r="133" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D133" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E133" s="2">
         <v>478</v>
@@ -2344,8 +2371,11 @@
       <c r="G133" s="2">
         <v>18001384</v>
       </c>
-    </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O133" s="2"/>
+      <c r="P133" s="2"/>
+      <c r="Q133" s="2"/>
+    </row>
+    <row r="134" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B134" s="1">
         <v>3</v>
       </c>
@@ -2364,8 +2394,11 @@
       <c r="G134" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O134" s="2"/>
+      <c r="P134" s="2"/>
+      <c r="Q134" s="2"/>
+    </row>
+    <row r="135" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D135" t="s">
         <v>36</v>
       </c>
@@ -2378,8 +2411,11 @@
       <c r="G135" s="2">
         <v>6339</v>
       </c>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O135" s="2"/>
+      <c r="P135" s="2"/>
+      <c r="Q135" s="2"/>
+    </row>
+    <row r="136" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D136" t="s">
         <v>37</v>
       </c>
@@ -2392,8 +2428,11 @@
       <c r="G136" s="2">
         <v>273049</v>
       </c>
-    </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O136" s="2"/>
+      <c r="P136" s="2"/>
+      <c r="Q136" s="2"/>
+    </row>
+    <row r="137" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
         <v>38</v>
       </c>
@@ -2406,10 +2445,13 @@
       <c r="G137" s="2">
         <v>720333</v>
       </c>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O137" s="2"/>
+      <c r="P137" s="2"/>
+      <c r="Q137" s="2"/>
+    </row>
+    <row r="138" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E138" s="2">
         <v>830</v>
@@ -2420,8 +2462,11 @@
       <c r="G138" s="2">
         <v>11858475</v>
       </c>
-    </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O138" s="2"/>
+      <c r="P138" s="2"/>
+      <c r="Q138" s="2"/>
+    </row>
+    <row r="139" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B139" s="1">
         <v>4</v>
       </c>
@@ -2440,8 +2485,11 @@
       <c r="G139" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O139" s="2"/>
+      <c r="P139" s="2"/>
+      <c r="Q139" s="2"/>
+    </row>
+    <row r="140" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D140" t="s">
         <v>36</v>
       </c>
@@ -2454,8 +2502,11 @@
       <c r="G140" s="2">
         <v>4992</v>
       </c>
-    </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O140" s="2"/>
+      <c r="P140" s="2"/>
+      <c r="Q140" s="2"/>
+    </row>
+    <row r="141" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D141" t="s">
         <v>37</v>
       </c>
@@ -2468,8 +2519,11 @@
       <c r="G141" s="2">
         <v>205832</v>
       </c>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O141" s="2"/>
+      <c r="P141" s="2"/>
+      <c r="Q141" s="2"/>
+    </row>
+    <row r="142" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D142" t="s">
         <v>38</v>
       </c>
@@ -2482,10 +2536,13 @@
       <c r="G142" s="2">
         <v>427045</v>
       </c>
-    </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O142" s="2"/>
+      <c r="P142" s="2"/>
+      <c r="Q142" s="2"/>
+    </row>
+    <row r="143" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D143" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E143" s="2">
         <v>271</v>
@@ -2496,8 +2553,11 @@
       <c r="G143" s="2">
         <v>2181776</v>
       </c>
-    </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O143" s="2"/>
+      <c r="P143" s="2"/>
+      <c r="Q143" s="2"/>
+    </row>
+    <row r="144" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B144" s="1">
         <v>5</v>
       </c>
@@ -2516,8 +2576,11 @@
       <c r="G144" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O144" s="2"/>
+      <c r="P144" s="2"/>
+      <c r="Q144" s="2"/>
+    </row>
+    <row r="145" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D145" t="s">
         <v>36</v>
       </c>
@@ -2530,8 +2593,11 @@
       <c r="G145" s="2">
         <v>6126</v>
       </c>
-    </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O145" s="2"/>
+      <c r="P145" s="2"/>
+      <c r="Q145" s="2"/>
+    </row>
+    <row r="146" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D146" t="s">
         <v>37</v>
       </c>
@@ -2544,8 +2610,11 @@
       <c r="G146" s="2">
         <v>294303</v>
       </c>
-    </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O146" s="2"/>
+      <c r="P146" s="2"/>
+      <c r="Q146" s="2"/>
+    </row>
+    <row r="147" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D147" t="s">
         <v>38</v>
       </c>
@@ -2558,10 +2627,13 @@
       <c r="G147" s="2">
         <v>776097</v>
       </c>
-    </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O147" s="2"/>
+      <c r="P147" s="2"/>
+      <c r="Q147" s="2"/>
+    </row>
+    <row r="148" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D148" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E148" s="2">
         <v>1125</v>
@@ -2572,8 +2644,11 @@
       <c r="G148" s="2">
         <v>36164256</v>
       </c>
-    </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O148" s="2"/>
+      <c r="P148" s="2"/>
+      <c r="Q148" s="2"/>
+    </row>
+    <row r="149" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B149" s="1">
         <v>6</v>
       </c>
@@ -2592,8 +2667,11 @@
       <c r="G149" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O149" s="2"/>
+      <c r="P149" s="2"/>
+      <c r="Q149" s="2"/>
+    </row>
+    <row r="150" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D150" t="s">
         <v>36</v>
       </c>
@@ -2606,8 +2684,11 @@
       <c r="G150" s="2">
         <v>12246</v>
       </c>
-    </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O150" s="2"/>
+      <c r="P150" s="2"/>
+      <c r="Q150" s="2"/>
+    </row>
+    <row r="151" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D151" t="s">
         <v>37</v>
       </c>
@@ -2620,8 +2701,11 @@
       <c r="G151" s="2">
         <v>361366</v>
       </c>
-    </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O151" s="2"/>
+      <c r="P151" s="2"/>
+      <c r="Q151" s="2"/>
+    </row>
+    <row r="152" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D152" t="s">
         <v>38</v>
       </c>
@@ -2634,10 +2718,13 @@
       <c r="G152" s="2">
         <v>806552</v>
       </c>
-    </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O152" s="2"/>
+      <c r="P152" s="2"/>
+      <c r="Q152" s="2"/>
+    </row>
+    <row r="153" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D153" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E153" s="2">
         <v>610</v>
@@ -2648,8 +2735,11 @@
       <c r="G153" s="2">
         <v>5199107</v>
       </c>
-    </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O153" s="2"/>
+      <c r="P153" s="2"/>
+      <c r="Q153" s="2"/>
+    </row>
+    <row r="154" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B154" s="1">
         <v>7</v>
       </c>
@@ -2668,8 +2758,11 @@
       <c r="G154" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O154" s="2"/>
+      <c r="P154" s="2"/>
+      <c r="Q154" s="2"/>
+    </row>
+    <row r="155" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D155" t="s">
         <v>36</v>
       </c>
@@ -2682,8 +2775,11 @@
       <c r="G155" s="2">
         <v>3913</v>
       </c>
-    </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O155" s="2"/>
+      <c r="P155" s="2"/>
+      <c r="Q155" s="2"/>
+    </row>
+    <row r="156" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D156" t="s">
         <v>37</v>
       </c>
@@ -2696,8 +2792,11 @@
       <c r="G156" s="2">
         <v>203995</v>
       </c>
-    </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O156" s="2"/>
+      <c r="P156" s="2"/>
+      <c r="Q156" s="2"/>
+    </row>
+    <row r="157" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D157" t="s">
         <v>38</v>
       </c>
@@ -2710,10 +2809,13 @@
       <c r="G157" s="2">
         <v>628215</v>
       </c>
-    </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O157" s="2"/>
+      <c r="P157" s="2"/>
+      <c r="Q157" s="2"/>
+    </row>
+    <row r="158" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D158" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E158" s="2">
         <v>992</v>
@@ -2724,8 +2826,11 @@
       <c r="G158" s="2">
         <v>89267883</v>
       </c>
-    </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O158" s="2"/>
+      <c r="P158" s="2"/>
+      <c r="Q158" s="2"/>
+    </row>
+    <row r="159" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B159" s="1">
         <v>8</v>
       </c>
@@ -2744,8 +2849,11 @@
       <c r="G159" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O159" s="2"/>
+      <c r="P159" s="2"/>
+      <c r="Q159" s="2"/>
+    </row>
+    <row r="160" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D160" t="s">
         <v>36</v>
       </c>
@@ -2758,8 +2866,11 @@
       <c r="G160" s="2">
         <v>7317</v>
       </c>
-    </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O160" s="2"/>
+      <c r="P160" s="2"/>
+      <c r="Q160" s="2"/>
+    </row>
+    <row r="161" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D161" t="s">
         <v>37</v>
       </c>
@@ -2772,8 +2883,11 @@
       <c r="G161" s="2">
         <v>355063</v>
       </c>
-    </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O161" s="2"/>
+      <c r="P161" s="2"/>
+      <c r="Q161" s="2"/>
+    </row>
+    <row r="162" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D162" t="s">
         <v>38</v>
       </c>
@@ -2786,10 +2900,13 @@
       <c r="G162" s="2">
         <v>942731</v>
       </c>
-    </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O162" s="2"/>
+      <c r="P162" s="2"/>
+      <c r="Q162" s="2"/>
+    </row>
+    <row r="163" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D163" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E163" s="2">
         <v>1079</v>
@@ -2800,8 +2917,11 @@
       <c r="G163" s="2">
         <v>13926100</v>
       </c>
-    </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O163" s="2"/>
+      <c r="P163" s="2"/>
+      <c r="Q163" s="2"/>
+    </row>
+    <row r="164" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B164" s="1">
         <v>9</v>
       </c>
@@ -2820,8 +2940,11 @@
       <c r="G164" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O164" s="2"/>
+      <c r="P164" s="2"/>
+      <c r="Q164" s="2"/>
+    </row>
+    <row r="165" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D165" t="s">
         <v>36</v>
       </c>
@@ -2834,8 +2957,11 @@
       <c r="G165" s="2">
         <v>4020</v>
       </c>
-    </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O165" s="2"/>
+      <c r="P165" s="2"/>
+      <c r="Q165" s="2"/>
+    </row>
+    <row r="166" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D166" t="s">
         <v>37</v>
       </c>
@@ -2848,8 +2974,11 @@
       <c r="G166" s="2">
         <v>179838</v>
       </c>
-    </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O166" s="2"/>
+      <c r="P166" s="2"/>
+      <c r="Q166" s="2"/>
+    </row>
+    <row r="167" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D167" t="s">
         <v>38</v>
       </c>
@@ -2862,10 +2991,13 @@
       <c r="G167" s="2">
         <v>446560</v>
       </c>
-    </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O167" s="2"/>
+      <c r="P167" s="2"/>
+      <c r="Q167" s="2"/>
+    </row>
+    <row r="168" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D168" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E168" s="2">
         <v>397</v>
@@ -2876,8 +3008,11 @@
       <c r="G168" s="2">
         <v>3402954</v>
       </c>
-    </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O168" s="2"/>
+      <c r="P168" s="2"/>
+      <c r="Q168" s="2"/>
+    </row>
+    <row r="169" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B169" s="1">
         <v>10</v>
       </c>
@@ -2896,8 +3031,11 @@
       <c r="G169" s="2">
         <v>141</v>
       </c>
-    </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O169" s="2"/>
+      <c r="P169" s="2"/>
+      <c r="Q169" s="2"/>
+    </row>
+    <row r="170" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D170" t="s">
         <v>36</v>
       </c>
@@ -2910,8 +3048,11 @@
       <c r="G170" s="2">
         <v>8530</v>
       </c>
-    </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O170" s="2"/>
+      <c r="P170" s="2"/>
+      <c r="Q170" s="2"/>
+    </row>
+    <row r="171" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D171" t="s">
         <v>37</v>
       </c>
@@ -2924,8 +3065,11 @@
       <c r="G171" s="2">
         <v>321274</v>
       </c>
-    </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O171" s="2"/>
+      <c r="P171" s="2"/>
+      <c r="Q171" s="2"/>
+    </row>
+    <row r="172" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D172" t="s">
         <v>38</v>
       </c>
@@ -2938,10 +3082,13 @@
       <c r="G172" s="2">
         <v>649088</v>
       </c>
-    </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O172" s="2"/>
+      <c r="P172" s="2"/>
+      <c r="Q172" s="2"/>
+    </row>
+    <row r="173" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D173" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E173" s="2">
         <v>458</v>
@@ -2952,8 +3099,11 @@
       <c r="G173" s="2">
         <v>3386343</v>
       </c>
-    </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O173" s="2"/>
+      <c r="P173" s="2"/>
+      <c r="Q173" s="2"/>
+    </row>
+    <row r="174" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B174" s="1">
         <v>11</v>
       </c>
@@ -2972,8 +3122,11 @@
       <c r="G174" s="2">
         <v>37</v>
       </c>
-    </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O174" s="2"/>
+      <c r="P174" s="2"/>
+      <c r="Q174" s="2"/>
+    </row>
+    <row r="175" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D175" t="s">
         <v>36</v>
       </c>
@@ -2986,8 +3139,11 @@
       <c r="G175" s="2">
         <v>7554</v>
       </c>
-    </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O175" s="2"/>
+      <c r="P175" s="2"/>
+      <c r="Q175" s="2"/>
+    </row>
+    <row r="176" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D176" t="s">
         <v>37</v>
       </c>
@@ -3000,8 +3156,11 @@
       <c r="G176" s="2">
         <v>292083</v>
       </c>
-    </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O176" s="2"/>
+      <c r="P176" s="2"/>
+      <c r="Q176" s="2"/>
+    </row>
+    <row r="177" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D177" t="s">
         <v>38</v>
       </c>
@@ -3014,10 +3173,13 @@
       <c r="G177" s="2">
         <v>744820</v>
       </c>
-    </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O177" s="2"/>
+      <c r="P177" s="2"/>
+      <c r="Q177" s="2"/>
+    </row>
+    <row r="178" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D178" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E178" s="2">
         <v>549</v>
@@ -3028,8 +3190,11 @@
       <c r="G178" s="2">
         <v>4510556</v>
       </c>
-    </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O178" s="2"/>
+      <c r="P178" s="2"/>
+      <c r="Q178" s="2"/>
+    </row>
+    <row r="179" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B179" s="1">
         <v>12</v>
       </c>
@@ -3048,8 +3213,11 @@
       <c r="G179" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O179" s="2"/>
+      <c r="P179" s="2"/>
+      <c r="Q179" s="2"/>
+    </row>
+    <row r="180" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D180" t="s">
         <v>36</v>
       </c>
@@ -3062,8 +3230,11 @@
       <c r="G180" s="2">
         <v>1097</v>
       </c>
-    </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O180" s="2"/>
+      <c r="P180" s="2"/>
+      <c r="Q180" s="2"/>
+    </row>
+    <row r="181" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D181" t="s">
         <v>37</v>
       </c>
@@ -3076,8 +3247,11 @@
       <c r="G181" s="2">
         <v>49084</v>
       </c>
-    </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O181" s="2"/>
+      <c r="P181" s="2"/>
+      <c r="Q181" s="2"/>
+    </row>
+    <row r="182" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D182" t="s">
         <v>38</v>
       </c>
@@ -3090,10 +3264,13 @@
       <c r="G182" s="2">
         <v>101199</v>
       </c>
-    </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O182" s="2"/>
+      <c r="P182" s="2"/>
+      <c r="Q182" s="2"/>
+    </row>
+    <row r="183" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D183" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E183" s="2">
         <v>113</v>
@@ -3104,8 +3281,11 @@
       <c r="G183" s="2">
         <v>1632801</v>
       </c>
-    </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O183" s="2"/>
+      <c r="P183" s="2"/>
+      <c r="Q183" s="2"/>
+    </row>
+    <row r="184" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B184" s="1">
         <v>13</v>
       </c>
@@ -3124,8 +3304,11 @@
       <c r="G184" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O184" s="2"/>
+      <c r="P184" s="2"/>
+      <c r="Q184" s="2"/>
+    </row>
+    <row r="185" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D185" t="s">
         <v>36</v>
       </c>
@@ -3138,8 +3321,11 @@
       <c r="G185" s="2">
         <v>2237</v>
       </c>
-    </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O185" s="2"/>
+      <c r="P185" s="2"/>
+      <c r="Q185" s="2"/>
+    </row>
+    <row r="186" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D186" t="s">
         <v>37</v>
       </c>
@@ -3152,8 +3338,11 @@
       <c r="G186" s="2">
         <v>71656</v>
       </c>
-    </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O186" s="2"/>
+      <c r="P186" s="2"/>
+      <c r="Q186" s="2"/>
+    </row>
+    <row r="187" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D187" t="s">
         <v>38</v>
       </c>
@@ -3166,10 +3355,13 @@
       <c r="G187" s="2">
         <v>156374</v>
       </c>
-    </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O187" s="2"/>
+      <c r="P187" s="2"/>
+      <c r="Q187" s="2"/>
+    </row>
+    <row r="188" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D188" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E188" s="2">
         <v>133</v>
@@ -3180,8 +3372,11 @@
       <c r="G188" s="2">
         <v>1008737</v>
       </c>
-    </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O188" s="2"/>
+      <c r="P188" s="2"/>
+      <c r="Q188" s="2"/>
+    </row>
+    <row r="189" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B189" s="1">
         <v>14</v>
       </c>
@@ -3200,8 +3395,11 @@
       <c r="G189" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O189" s="2"/>
+      <c r="P189" s="2"/>
+      <c r="Q189" s="2"/>
+    </row>
+    <row r="190" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D190" t="s">
         <v>36</v>
       </c>
@@ -3214,8 +3412,11 @@
       <c r="G190" s="2">
         <v>3866</v>
       </c>
-    </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O190" s="2"/>
+      <c r="P190" s="2"/>
+      <c r="Q190" s="2"/>
+    </row>
+    <row r="191" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D191" t="s">
         <v>37</v>
       </c>
@@ -3228,8 +3429,11 @@
       <c r="G191" s="2">
         <v>152960</v>
       </c>
-    </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O191" s="2"/>
+      <c r="P191" s="2"/>
+      <c r="Q191" s="2"/>
+    </row>
+    <row r="192" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D192" t="s">
         <v>38</v>
       </c>
@@ -3242,10 +3446,13 @@
       <c r="G192" s="2">
         <v>352617</v>
       </c>
-    </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O192" s="2"/>
+      <c r="P192" s="2"/>
+      <c r="Q192" s="2"/>
+    </row>
+    <row r="193" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D193" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E193" s="2">
         <v>348</v>
@@ -3256,8 +3463,11 @@
       <c r="G193" s="2">
         <v>4082107</v>
       </c>
-    </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O193" s="2"/>
+      <c r="P193" s="2"/>
+      <c r="Q193" s="2"/>
+    </row>
+    <row r="194" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B194" s="1">
         <v>15</v>
       </c>
@@ -3276,8 +3486,11 @@
       <c r="G194" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O194" s="2"/>
+      <c r="P194" s="2"/>
+      <c r="Q194" s="2"/>
+    </row>
+    <row r="195" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D195" t="s">
         <v>36</v>
       </c>
@@ -3290,8 +3503,11 @@
       <c r="G195" s="2">
         <v>3480</v>
       </c>
-    </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O195" s="2"/>
+      <c r="P195" s="2"/>
+      <c r="Q195" s="2"/>
+    </row>
+    <row r="196" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D196" t="s">
         <v>37</v>
       </c>
@@ -3304,8 +3520,11 @@
       <c r="G196" s="2">
         <v>197445</v>
       </c>
-    </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O196" s="2"/>
+      <c r="P196" s="2"/>
+      <c r="Q196" s="2"/>
+    </row>
+    <row r="197" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D197" t="s">
         <v>38</v>
       </c>
@@ -3318,10 +3537,13 @@
       <c r="G197" s="2">
         <v>483003</v>
       </c>
-    </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O197" s="2"/>
+      <c r="P197" s="2"/>
+      <c r="Q197" s="2"/>
+    </row>
+    <row r="198" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D198" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E198" s="2">
         <v>366</v>
@@ -3332,8 +3554,11 @@
       <c r="G198" s="2">
         <v>3206620</v>
       </c>
-    </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O198" s="2"/>
+      <c r="P198" s="2"/>
+      <c r="Q198" s="2"/>
+    </row>
+    <row r="199" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B199" s="1">
         <v>16</v>
       </c>
@@ -3352,8 +3577,11 @@
       <c r="G199" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O199" s="2"/>
+      <c r="P199" s="2"/>
+      <c r="Q199" s="2"/>
+    </row>
+    <row r="200" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D200" t="s">
         <v>36</v>
       </c>
@@ -3366,8 +3594,11 @@
       <c r="G200" s="2">
         <v>1825</v>
       </c>
-    </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O200" s="2"/>
+      <c r="P200" s="2"/>
+      <c r="Q200" s="2"/>
+    </row>
+    <row r="201" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D201" t="s">
         <v>37</v>
       </c>
@@ -3380,8 +3611,11 @@
       <c r="G201" s="2">
         <v>80005</v>
       </c>
-    </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O201" s="2"/>
+      <c r="P201" s="2"/>
+      <c r="Q201" s="2"/>
+    </row>
+    <row r="202" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D202" t="s">
         <v>38</v>
       </c>
@@ -3394,10 +3628,13 @@
       <c r="G202" s="2">
         <v>128948</v>
       </c>
-    </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O202" s="2"/>
+      <c r="P202" s="2"/>
+      <c r="Q202" s="2"/>
+    </row>
+    <row r="203" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D203" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E203" s="2">
         <v>69</v>
@@ -3408,8 +3645,11 @@
       <c r="G203" s="2">
         <v>591792</v>
       </c>
-    </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O203" s="2"/>
+      <c r="P203" s="2"/>
+      <c r="Q203" s="2"/>
+    </row>
+    <row r="204" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B204" s="1">
         <v>17</v>
       </c>
@@ -3428,8 +3668,11 @@
       <c r="G204" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O204" s="2"/>
+      <c r="P204" s="2"/>
+      <c r="Q204" s="2"/>
+    </row>
+    <row r="205" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D205" t="s">
         <v>36</v>
       </c>
@@ -3442,8 +3685,11 @@
       <c r="G205" s="2">
         <v>7207</v>
       </c>
-    </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O205" s="2"/>
+      <c r="P205" s="2"/>
+      <c r="Q205" s="2"/>
+    </row>
+    <row r="206" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D206" t="s">
         <v>37</v>
       </c>
@@ -3456,8 +3702,11 @@
       <c r="G206" s="2">
         <v>226471</v>
       </c>
-    </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O206" s="2"/>
+      <c r="P206" s="2"/>
+      <c r="Q206" s="2"/>
+    </row>
+    <row r="207" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D207" t="s">
         <v>38</v>
       </c>
@@ -3470,10 +3719,13 @@
       <c r="G207" s="2">
         <v>493347</v>
       </c>
-    </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O207" s="2"/>
+      <c r="P207" s="2"/>
+      <c r="Q207" s="2"/>
+    </row>
+    <row r="208" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D208" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E208" s="2">
         <v>437</v>
@@ -3484,8 +3736,11 @@
       <c r="G208" s="2">
         <v>3722631</v>
       </c>
-    </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O208" s="2"/>
+      <c r="P208" s="2"/>
+      <c r="Q208" s="2"/>
+    </row>
+    <row r="209" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B209" s="1">
         <v>18</v>
       </c>
@@ -3504,8 +3759,11 @@
       <c r="G209" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O209" s="2"/>
+      <c r="P209" s="2"/>
+      <c r="Q209" s="2"/>
+    </row>
+    <row r="210" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D210" t="s">
         <v>36</v>
       </c>
@@ -3518,8 +3776,11 @@
       <c r="G210" s="2">
         <v>1521</v>
       </c>
-    </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O210" s="2"/>
+      <c r="P210" s="2"/>
+      <c r="Q210" s="2"/>
+    </row>
+    <row r="211" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D211" t="s">
         <v>37</v>
       </c>
@@ -3532,8 +3793,11 @@
       <c r="G211" s="2">
         <v>78672</v>
       </c>
-    </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O211" s="2"/>
+      <c r="P211" s="2"/>
+      <c r="Q211" s="2"/>
+    </row>
+    <row r="212" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D212" t="s">
         <v>38</v>
       </c>
@@ -3546,10 +3810,13 @@
       <c r="G212" s="2">
         <v>159245</v>
       </c>
-    </row>
-    <row r="213" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O212" s="2"/>
+      <c r="P212" s="2"/>
+      <c r="Q212" s="2"/>
+    </row>
+    <row r="213" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D213" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E213" s="2">
         <v>87</v>
@@ -3560,8 +3827,11 @@
       <c r="G213" s="2">
         <v>521447</v>
       </c>
-    </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O213" s="2"/>
+      <c r="P213" s="2"/>
+      <c r="Q213" s="2"/>
+    </row>
+    <row r="214" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B214" s="1">
         <v>19</v>
       </c>
@@ -3580,8 +3850,11 @@
       <c r="G214" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O214" s="2"/>
+      <c r="P214" s="2"/>
+      <c r="Q214" s="2"/>
+    </row>
+    <row r="215" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D215" t="s">
         <v>36</v>
       </c>
@@ -3594,8 +3867,11 @@
       <c r="G215" s="2">
         <v>667</v>
       </c>
-    </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O215" s="2"/>
+      <c r="P215" s="2"/>
+      <c r="Q215" s="2"/>
+    </row>
+    <row r="216" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D216" t="s">
         <v>37</v>
       </c>
@@ -3608,8 +3884,11 @@
       <c r="G216" s="2">
         <v>32956</v>
       </c>
-    </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O216" s="2"/>
+      <c r="P216" s="2"/>
+      <c r="Q216" s="2"/>
+    </row>
+    <row r="217" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D217" t="s">
         <v>38</v>
       </c>
@@ -3622,10 +3901,13 @@
       <c r="G217" s="2">
         <v>74328</v>
       </c>
-    </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O217" s="2"/>
+      <c r="P217" s="2"/>
+      <c r="Q217" s="2"/>
+    </row>
+    <row r="218" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D218" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E218" s="2">
         <v>37</v>
@@ -3636,8 +3918,11 @@
       <c r="G218" s="2">
         <v>224888</v>
       </c>
-    </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O218" s="2"/>
+      <c r="P218" s="2"/>
+      <c r="Q218" s="2"/>
+    </row>
+    <row r="219" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B219" s="1">
         <v>20</v>
       </c>
@@ -3656,8 +3941,11 @@
       <c r="G219" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="220" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O219" s="2"/>
+      <c r="P219" s="2"/>
+      <c r="Q219" s="2"/>
+    </row>
+    <row r="220" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D220" t="s">
         <v>36</v>
       </c>
@@ -3670,8 +3958,11 @@
       <c r="G220" s="2">
         <v>7103</v>
       </c>
-    </row>
-    <row r="221" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O220" s="2"/>
+      <c r="P220" s="2"/>
+      <c r="Q220" s="2"/>
+    </row>
+    <row r="221" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D221" t="s">
         <v>37</v>
       </c>
@@ -3684,8 +3975,11 @@
       <c r="G221" s="2">
         <v>456018</v>
       </c>
-    </row>
-    <row r="222" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O221" s="2"/>
+      <c r="P221" s="2"/>
+      <c r="Q221" s="2"/>
+    </row>
+    <row r="222" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D222" t="s">
         <v>38</v>
       </c>
@@ -3698,10 +3992,13 @@
       <c r="G222" s="2">
         <v>1509058</v>
       </c>
-    </row>
-    <row r="223" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O222" s="2"/>
+      <c r="P222" s="2"/>
+      <c r="Q222" s="2"/>
+    </row>
+    <row r="223" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D223" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E223" s="2">
         <v>2015</v>
@@ -3712,8 +4009,11 @@
       <c r="G223" s="2">
         <v>34194373</v>
       </c>
-    </row>
-    <row r="224" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O223" s="2"/>
+      <c r="P223" s="2"/>
+      <c r="Q223" s="2"/>
+    </row>
+    <row r="224" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B224" s="1">
         <v>30</v>
       </c>
@@ -3732,8 +4032,11 @@
       <c r="G224" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O224" s="2"/>
+      <c r="P224" s="2"/>
+      <c r="Q224" s="2"/>
+    </row>
+    <row r="225" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D225" t="s">
         <v>36</v>
       </c>
@@ -3746,8 +4049,11 @@
       <c r="G225" s="2">
         <v>467</v>
       </c>
-    </row>
-    <row r="226" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O225" s="2"/>
+      <c r="P225" s="2"/>
+      <c r="Q225" s="2"/>
+    </row>
+    <row r="226" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D226" t="s">
         <v>37</v>
       </c>
@@ -3760,8 +4066,11 @@
       <c r="G226" s="2">
         <v>19070</v>
       </c>
-    </row>
-    <row r="227" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O226" s="2"/>
+      <c r="P226" s="2"/>
+      <c r="Q226" s="2"/>
+    </row>
+    <row r="227" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D227" t="s">
         <v>38</v>
       </c>
@@ -3774,10 +4083,13 @@
       <c r="G227" s="2">
         <v>88751</v>
       </c>
-    </row>
-    <row r="228" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O227" s="2"/>
+      <c r="P227" s="2"/>
+      <c r="Q227" s="2"/>
+    </row>
+    <row r="228" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D228" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E228" s="2">
         <v>144</v>
@@ -3788,8 +4100,11 @@
       <c r="G228" s="2">
         <v>9644651</v>
       </c>
-    </row>
-    <row r="230" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="O228" s="2"/>
+      <c r="P228" s="2"/>
+      <c r="Q228" s="2"/>
+    </row>
+    <row r="230" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D230" t="s">
         <v>32</v>
       </c>
@@ -3806,27 +4121,27 @@
         <v>270086215</v>
       </c>
     </row>
-    <row r="236" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C236" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="238" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C238" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="238" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C238" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="239" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C239" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="240" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C240" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="240" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C240" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
